--- a/tests/fixtures/orderforms/2184.5.sarscov2.xlsx
+++ b/tests/fixtures/orderforms/2184.5.sarscov2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik.grenfeldt/Documents/GitHub/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564A474-6C29-6841-9980-9247B5445AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E88295-965D-7945-8776-0ACD2E6A2619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="-21100" windowWidth="20540" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11960" yWindow="-21100" windowWidth="20540" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -3463,24 +3463,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3500,6 +3482,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31982,8 +31982,8 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:D48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32296,43 +32296,43 @@
       <c r="AE8" s="69"/>
     </row>
     <row r="9" spans="1:31" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="135"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="141"/>
       <c r="U9" s="71"/>
-      <c r="V9" s="136" t="s">
+      <c r="V9" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="135"/>
+      <c r="W9" s="141"/>
       <c r="X9" s="71"/>
       <c r="Y9" s="72" t="s">
         <v>43</v>
       </c>
       <c r="Z9" s="71"/>
-      <c r="AA9" s="137" t="s">
+      <c r="AA9" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="135"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="141"/>
       <c r="AD9" s="73"/>
       <c r="AE9" s="73"/>
     </row>
@@ -32616,13 +32616,13 @@
       <c r="AE14" s="90"/>
     </row>
     <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="133" t="s">
         <v>524</v>
       </c>
       <c r="B15" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="134" t="s">
         <v>525</v>
       </c>
       <c r="D15" s="94" t="s">
@@ -32649,17 +32649,17 @@
       <c r="K15" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L15" s="140" t="s">
+      <c r="L15" s="135" t="s">
         <v>115</v>
       </c>
       <c r="M15" s="123" t="str">
         <f>IF((L15=""),"",VLOOKUP(L15,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>01</v>
       </c>
-      <c r="N15" s="142" t="s">
+      <c r="N15" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="140" t="s">
+      <c r="O15" s="135" t="s">
         <v>117</v>
       </c>
       <c r="P15" s="131" t="str">
@@ -32669,7 +32669,7 @@
       <c r="Q15" s="97">
         <v>44321</v>
       </c>
-      <c r="R15" s="143" t="s">
+      <c r="R15" s="138" t="s">
         <v>119</v>
       </c>
       <c r="S15" s="93">
@@ -32705,13 +32705,13 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="133" t="s">
         <v>526</v>
       </c>
       <c r="B16" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="134" t="s">
         <v>527</v>
       </c>
       <c r="D16" s="94" t="s">
@@ -32738,17 +32738,17 @@
       <c r="K16" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="140" t="s">
+      <c r="L16" s="135" t="s">
         <v>130</v>
       </c>
       <c r="M16" s="123" t="str">
         <f>IF((L16=""),"",VLOOKUP(L16,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>03</v>
       </c>
-      <c r="N16" s="142" t="s">
+      <c r="N16" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="O16" s="140" t="s">
+      <c r="O16" s="135" t="s">
         <v>523</v>
       </c>
       <c r="P16" s="131" t="str">
@@ -32758,7 +32758,7 @@
       <c r="Q16" s="97">
         <v>44322</v>
       </c>
-      <c r="R16" s="143" t="s">
+      <c r="R16" s="138" t="s">
         <v>133</v>
       </c>
       <c r="S16" s="93">
@@ -32782,13 +32782,13 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="133" t="s">
         <v>528</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="134" t="s">
         <v>529</v>
       </c>
       <c r="D17" s="94" t="s">
@@ -32815,17 +32815,17 @@
       <c r="K17" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="140" t="s">
+      <c r="L17" s="135" t="s">
         <v>141</v>
       </c>
       <c r="M17" s="123" t="str">
         <f>IF((L17=""),"",VLOOKUP(L17,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>04</v>
       </c>
-      <c r="N17" s="142" t="s">
+      <c r="N17" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="O17" s="140" t="s">
+      <c r="O17" s="135" t="s">
         <v>143</v>
       </c>
       <c r="P17" s="131" t="str">
@@ -32835,7 +32835,7 @@
       <c r="Q17" s="97">
         <v>44323</v>
       </c>
-      <c r="R17" s="143" t="s">
+      <c r="R17" s="138" t="s">
         <v>145</v>
       </c>
       <c r="S17" s="93">
@@ -32859,13 +32859,13 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="133" t="s">
         <v>530</v>
       </c>
       <c r="B18" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="134" t="s">
         <v>531</v>
       </c>
       <c r="D18" s="94" t="s">
@@ -32892,17 +32892,17 @@
       <c r="K18" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="140" t="s">
+      <c r="L18" s="135" t="s">
         <v>150</v>
       </c>
       <c r="M18" s="123" t="str">
         <f>IF((L18=""),"",VLOOKUP(L18,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>05</v>
       </c>
-      <c r="N18" s="142" t="s">
+      <c r="N18" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="O18" s="140" t="s">
+      <c r="O18" s="135" t="s">
         <v>152</v>
       </c>
       <c r="P18" s="131" t="str">
@@ -32912,7 +32912,7 @@
       <c r="Q18" s="97">
         <v>44324</v>
       </c>
-      <c r="R18" s="143" t="s">
+      <c r="R18" s="138" t="s">
         <v>154</v>
       </c>
       <c r="S18" s="93">
@@ -32936,13 +32936,13 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="133" t="s">
         <v>532</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="134" t="s">
         <v>533</v>
       </c>
       <c r="D19" s="94" t="s">
@@ -32969,17 +32969,17 @@
       <c r="K19" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="140" t="s">
+      <c r="L19" s="135" t="s">
         <v>158</v>
       </c>
       <c r="M19" s="123" t="str">
         <f>IF((L19=""),"",VLOOKUP(L19,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>06</v>
       </c>
-      <c r="N19" s="142" t="s">
+      <c r="N19" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="140" t="s">
+      <c r="O19" s="135" t="s">
         <v>160</v>
       </c>
       <c r="P19" s="131" t="str">
@@ -32989,7 +32989,7 @@
       <c r="Q19" s="97">
         <v>44325</v>
       </c>
-      <c r="R19" s="143" t="s">
+      <c r="R19" s="138" t="s">
         <v>162</v>
       </c>
       <c r="S19" s="93">
@@ -33013,13 +33013,13 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="133" t="s">
         <v>534</v>
       </c>
       <c r="B20" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="134" t="s">
         <v>535</v>
       </c>
       <c r="D20" s="94" t="s">
@@ -33046,17 +33046,17 @@
       <c r="K20" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="140" t="s">
+      <c r="L20" s="135" t="s">
         <v>102</v>
       </c>
       <c r="M20" s="123" t="str">
         <f>IF((L20=""),"",VLOOKUP(L20,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>07</v>
       </c>
-      <c r="N20" s="142" t="s">
+      <c r="N20" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="O20" s="140" t="s">
+      <c r="O20" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P20" s="131" t="str">
@@ -33066,7 +33066,7 @@
       <c r="Q20" s="97">
         <v>44326</v>
       </c>
-      <c r="R20" s="143" t="s">
+      <c r="R20" s="138" t="s">
         <v>169</v>
       </c>
       <c r="S20" s="93">
@@ -33090,13 +33090,13 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="133" t="s">
         <v>536</v>
       </c>
       <c r="B21" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="134" t="s">
         <v>537</v>
       </c>
       <c r="D21" s="94" t="s">
@@ -33123,17 +33123,17 @@
       <c r="K21" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L21" s="140" t="s">
+      <c r="L21" s="135" t="s">
         <v>173</v>
       </c>
       <c r="M21" s="123" t="str">
         <f>IF((L21=""),"",VLOOKUP(L21,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>08</v>
       </c>
-      <c r="N21" s="142" t="s">
+      <c r="N21" s="137" t="s">
         <v>177</v>
       </c>
-      <c r="O21" s="140" t="s">
+      <c r="O21" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P21" s="131" t="str">
@@ -33143,7 +33143,7 @@
       <c r="Q21" s="97">
         <v>44327</v>
       </c>
-      <c r="R21" s="143" t="s">
+      <c r="R21" s="138" t="s">
         <v>175</v>
       </c>
       <c r="S21" s="93">
@@ -33167,13 +33167,13 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="133" t="s">
         <v>538</v>
       </c>
       <c r="B22" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="134" t="s">
         <v>539</v>
       </c>
       <c r="D22" s="94" t="s">
@@ -33200,17 +33200,17 @@
       <c r="K22" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L22" s="140" t="s">
+      <c r="L22" s="135" t="s">
         <v>179</v>
       </c>
       <c r="M22" s="123" t="str">
         <f>IF((L22=""),"",VLOOKUP(L22,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>09</v>
       </c>
-      <c r="N22" s="142" t="s">
+      <c r="N22" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="O22" s="140" t="s">
+      <c r="O22" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P22" s="131" t="str">
@@ -33220,7 +33220,7 @@
       <c r="Q22" s="97">
         <v>44328</v>
       </c>
-      <c r="R22" s="143" t="s">
+      <c r="R22" s="138" t="s">
         <v>119</v>
       </c>
       <c r="S22" s="93">
@@ -33244,13 +33244,13 @@
       </c>
     </row>
     <row r="23" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="133" t="s">
         <v>540</v>
       </c>
       <c r="B23" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="134" t="s">
         <v>541</v>
       </c>
       <c r="D23" s="94" t="s">
@@ -33277,17 +33277,17 @@
       <c r="K23" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="140" t="s">
+      <c r="L23" s="135" t="s">
         <v>184</v>
       </c>
       <c r="M23" s="123" t="str">
         <f>IF((L23=""),"",VLOOKUP(L23,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>10</v>
       </c>
-      <c r="N23" s="142" t="s">
+      <c r="N23" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="O23" s="140" t="s">
+      <c r="O23" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P23" s="131" t="str">
@@ -33297,7 +33297,7 @@
       <c r="Q23" s="97">
         <v>44329</v>
       </c>
-      <c r="R23" s="143" t="s">
+      <c r="R23" s="138" t="s">
         <v>133</v>
       </c>
       <c r="S23" s="93">
@@ -33321,13 +33321,13 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="133" t="s">
         <v>542</v>
       </c>
       <c r="B24" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="134" t="s">
         <v>543</v>
       </c>
       <c r="D24" s="94" t="s">
@@ -33354,17 +33354,17 @@
       <c r="K24" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L24" s="140" t="s">
+      <c r="L24" s="135" t="s">
         <v>189</v>
       </c>
       <c r="M24" s="123" t="str">
         <f>IF((L24=""),"",VLOOKUP(L24,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="N24" s="142" t="s">
+      <c r="N24" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="O24" s="140" t="s">
+      <c r="O24" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P24" s="131" t="str">
@@ -33374,7 +33374,7 @@
       <c r="Q24" s="97">
         <v>44330</v>
       </c>
-      <c r="R24" s="143" t="s">
+      <c r="R24" s="138" t="s">
         <v>145</v>
       </c>
       <c r="S24" s="93">
@@ -33398,13 +33398,13 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="138" t="s">
+      <c r="A25" s="133" t="s">
         <v>544</v>
       </c>
       <c r="B25" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="134" t="s">
         <v>545</v>
       </c>
       <c r="D25" s="94" t="s">
@@ -33431,17 +33431,17 @@
       <c r="K25" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L25" s="140" t="s">
+      <c r="L25" s="135" t="s">
         <v>194</v>
       </c>
       <c r="M25" s="123" t="str">
         <f>IF((L25=""),"",VLOOKUP(L25,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>13</v>
       </c>
-      <c r="N25" s="142" t="s">
+      <c r="N25" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="O25" s="140" t="s">
+      <c r="O25" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P25" s="131" t="str">
@@ -33451,7 +33451,7 @@
       <c r="Q25" s="97">
         <v>44331</v>
       </c>
-      <c r="R25" s="143" t="s">
+      <c r="R25" s="138" t="s">
         <v>154</v>
       </c>
       <c r="S25" s="93">
@@ -33475,13 +33475,13 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="133" t="s">
         <v>546</v>
       </c>
       <c r="B26" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="134" t="s">
         <v>547</v>
       </c>
       <c r="D26" s="94" t="s">
@@ -33508,17 +33508,17 @@
       <c r="K26" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="141" t="s">
+      <c r="L26" s="136" t="s">
         <v>199</v>
       </c>
       <c r="M26" s="123" t="str">
         <f>IF((L26=""),"",VLOOKUP(L26,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>14</v>
       </c>
-      <c r="N26" s="142" t="s">
+      <c r="N26" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="O26" s="140" t="s">
+      <c r="O26" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P26" s="131" t="str">
@@ -33528,7 +33528,7 @@
       <c r="Q26" s="97">
         <v>44332</v>
       </c>
-      <c r="R26" s="143" t="s">
+      <c r="R26" s="138" t="s">
         <v>162</v>
       </c>
       <c r="S26" s="93">
@@ -33552,13 +33552,13 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="133" t="s">
         <v>548</v>
       </c>
       <c r="B27" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="139" t="s">
+      <c r="C27" s="134" t="s">
         <v>549</v>
       </c>
       <c r="D27" s="94" t="s">
@@ -33585,17 +33585,17 @@
       <c r="K27" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L27" s="140" t="s">
+      <c r="L27" s="135" t="s">
         <v>204</v>
       </c>
       <c r="M27" s="123" t="str">
         <f>IF((L27=""),"",VLOOKUP(L27,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>17</v>
       </c>
-      <c r="N27" s="142" t="s">
+      <c r="N27" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="O27" s="140" t="s">
+      <c r="O27" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P27" s="131" t="str">
@@ -33605,7 +33605,7 @@
       <c r="Q27" s="97">
         <v>44333</v>
       </c>
-      <c r="R27" s="143" t="s">
+      <c r="R27" s="138" t="s">
         <v>169</v>
       </c>
       <c r="S27" s="93">
@@ -33629,13 +33629,13 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="133" t="s">
         <v>550</v>
       </c>
       <c r="B28" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="134" t="s">
         <v>551</v>
       </c>
       <c r="D28" s="94" t="s">
@@ -33662,17 +33662,17 @@
       <c r="K28" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L28" s="140" t="s">
+      <c r="L28" s="135" t="s">
         <v>209</v>
       </c>
       <c r="M28" s="123" t="str">
         <f>IF((L28=""),"",VLOOKUP(L28,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>18</v>
       </c>
-      <c r="N28" s="142" t="s">
+      <c r="N28" s="137" t="s">
         <v>212</v>
       </c>
-      <c r="O28" s="140" t="s">
+      <c r="O28" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P28" s="131" t="str">
@@ -33682,7 +33682,7 @@
       <c r="Q28" s="97">
         <v>44334</v>
       </c>
-      <c r="R28" s="143" t="s">
+      <c r="R28" s="138" t="s">
         <v>175</v>
       </c>
       <c r="S28" s="93">
@@ -33706,13 +33706,13 @@
       </c>
     </row>
     <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="138" t="s">
+      <c r="A29" s="133" t="s">
         <v>552</v>
       </c>
       <c r="B29" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="134" t="s">
         <v>553</v>
       </c>
       <c r="D29" s="94" t="s">
@@ -33739,17 +33739,17 @@
       <c r="K29" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="140" t="s">
+      <c r="L29" s="135" t="s">
         <v>214</v>
       </c>
       <c r="M29" s="123" t="str">
         <f>IF((L29=""),"",VLOOKUP(L29,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>19</v>
       </c>
-      <c r="N29" s="142" t="s">
+      <c r="N29" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="O29" s="140" t="s">
+      <c r="O29" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P29" s="131" t="str">
@@ -33759,7 +33759,7 @@
       <c r="Q29" s="97">
         <v>44335</v>
       </c>
-      <c r="R29" s="143" t="s">
+      <c r="R29" s="138" t="s">
         <v>119</v>
       </c>
       <c r="S29" s="93">
@@ -33783,13 +33783,13 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="133" t="s">
         <v>554</v>
       </c>
       <c r="B30" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="134" t="s">
         <v>555</v>
       </c>
       <c r="D30" s="94" t="s">
@@ -33816,17 +33816,17 @@
       <c r="K30" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L30" s="140" t="s">
+      <c r="L30" s="135" t="s">
         <v>219</v>
       </c>
       <c r="M30" s="123" t="str">
         <f>IF((L30=""),"",VLOOKUP(L30,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>20</v>
       </c>
-      <c r="N30" s="142" t="s">
+      <c r="N30" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="O30" s="140" t="s">
+      <c r="O30" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P30" s="131" t="str">
@@ -33836,7 +33836,7 @@
       <c r="Q30" s="97">
         <v>44336</v>
       </c>
-      <c r="R30" s="143" t="s">
+      <c r="R30" s="138" t="s">
         <v>133</v>
       </c>
       <c r="S30" s="93">
@@ -33860,13 +33860,13 @@
       </c>
     </row>
     <row r="31" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="138" t="s">
+      <c r="A31" s="133" t="s">
         <v>556</v>
       </c>
       <c r="B31" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="134" t="s">
         <v>557</v>
       </c>
       <c r="D31" s="94" t="s">
@@ -33893,17 +33893,17 @@
       <c r="K31" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L31" s="140" t="s">
+      <c r="L31" s="135" t="s">
         <v>224</v>
       </c>
       <c r="M31" s="123" t="str">
         <f>IF((L31=""),"",VLOOKUP(L31,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>21</v>
       </c>
-      <c r="N31" s="142" t="s">
+      <c r="N31" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="O31" s="140" t="s">
+      <c r="O31" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P31" s="131" t="str">
@@ -33913,7 +33913,7 @@
       <c r="Q31" s="97">
         <v>44337</v>
       </c>
-      <c r="R31" s="143" t="s">
+      <c r="R31" s="138" t="s">
         <v>145</v>
       </c>
       <c r="S31" s="93">
@@ -33937,13 +33937,13 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="138" t="s">
+      <c r="A32" s="133" t="s">
         <v>558</v>
       </c>
       <c r="B32" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="134" t="s">
         <v>559</v>
       </c>
       <c r="D32" s="94" t="s">
@@ -33970,17 +33970,17 @@
       <c r="K32" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L32" s="140" t="s">
+      <c r="L32" s="135" t="s">
         <v>229</v>
       </c>
       <c r="M32" s="123" t="str">
         <f>IF((L32=""),"",VLOOKUP(L32,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>22</v>
       </c>
-      <c r="N32" s="142" t="s">
+      <c r="N32" s="137" t="s">
         <v>232</v>
       </c>
-      <c r="O32" s="140" t="s">
+      <c r="O32" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P32" s="131" t="str">
@@ -33990,7 +33990,7 @@
       <c r="Q32" s="97">
         <v>44338</v>
       </c>
-      <c r="R32" s="143" t="s">
+      <c r="R32" s="138" t="s">
         <v>154</v>
       </c>
       <c r="S32" s="93">
@@ -34014,13 +34014,13 @@
       </c>
     </row>
     <row r="33" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="133" t="s">
         <v>560</v>
       </c>
       <c r="B33" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="139" t="s">
+      <c r="C33" s="134" t="s">
         <v>561</v>
       </c>
       <c r="D33" s="94" t="s">
@@ -34047,17 +34047,17 @@
       <c r="K33" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L33" s="140" t="s">
+      <c r="L33" s="135" t="s">
         <v>234</v>
       </c>
       <c r="M33" s="123" t="str">
         <f>IF((L33=""),"",VLOOKUP(L33,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>23</v>
       </c>
-      <c r="N33" s="142" t="s">
+      <c r="N33" s="137" t="s">
         <v>237</v>
       </c>
-      <c r="O33" s="140" t="s">
+      <c r="O33" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P33" s="131" t="str">
@@ -34067,7 +34067,7 @@
       <c r="Q33" s="97">
         <v>44339</v>
       </c>
-      <c r="R33" s="143" t="s">
+      <c r="R33" s="138" t="s">
         <v>162</v>
       </c>
       <c r="S33" s="93">
@@ -34091,13 +34091,13 @@
       </c>
     </row>
     <row r="34" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="138" t="s">
+      <c r="A34" s="133" t="s">
         <v>562</v>
       </c>
       <c r="B34" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="134" t="s">
         <v>563</v>
       </c>
       <c r="D34" s="94" t="s">
@@ -34124,17 +34124,17 @@
       <c r="K34" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L34" s="140" t="s">
+      <c r="L34" s="135" t="s">
         <v>239</v>
       </c>
       <c r="M34" s="123" t="str">
         <f>IF((L34=""),"",VLOOKUP(L34,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="N34" s="142" t="s">
+      <c r="N34" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="O34" s="140" t="s">
+      <c r="O34" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P34" s="131" t="str">
@@ -34144,7 +34144,7 @@
       <c r="Q34" s="97">
         <v>44340</v>
       </c>
-      <c r="R34" s="143" t="s">
+      <c r="R34" s="138" t="s">
         <v>169</v>
       </c>
       <c r="S34" s="93">
@@ -34168,13 +34168,13 @@
       </c>
     </row>
     <row r="35" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="138" t="s">
+      <c r="A35" s="133" t="s">
         <v>564</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="139" t="s">
+      <c r="C35" s="134" t="s">
         <v>565</v>
       </c>
       <c r="D35" s="94" t="s">
@@ -34201,17 +34201,17 @@
       <c r="K35" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="140" t="s">
+      <c r="L35" s="135" t="s">
         <v>244</v>
       </c>
       <c r="M35" s="123" t="str">
         <f>IF((L35=""),"",VLOOKUP(L35,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>25</v>
       </c>
-      <c r="N35" s="142" t="s">
+      <c r="N35" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="O35" s="140" t="s">
+      <c r="O35" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P35" s="131" t="str">
@@ -34221,7 +34221,7 @@
       <c r="Q35" s="97">
         <v>44341</v>
       </c>
-      <c r="R35" s="143" t="s">
+      <c r="R35" s="138" t="s">
         <v>175</v>
       </c>
       <c r="S35" s="93">
@@ -34245,13 +34245,13 @@
       </c>
     </row>
     <row r="36" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="133" t="s">
         <v>575</v>
       </c>
       <c r="B36" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="134" t="s">
         <v>569</v>
       </c>
       <c r="D36" s="94" t="s">
@@ -34278,17 +34278,17 @@
       <c r="K36" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L36" s="140" t="s">
+      <c r="L36" s="135" t="s">
         <v>244</v>
       </c>
       <c r="M36" s="123" t="str">
         <f>IF((L36=""),"",VLOOKUP(L36,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>25</v>
       </c>
-      <c r="N36" s="142" t="s">
+      <c r="N36" s="137" t="s">
         <v>250</v>
       </c>
-      <c r="O36" s="140" t="s">
+      <c r="O36" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P36" s="131" t="str">
@@ -34298,7 +34298,7 @@
       <c r="Q36" s="97">
         <v>44342</v>
       </c>
-      <c r="R36" s="143" t="s">
+      <c r="R36" s="138" t="s">
         <v>119</v>
       </c>
       <c r="S36" s="93">
@@ -34322,13 +34322,13 @@
       </c>
     </row>
     <row r="37" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="133" t="s">
         <v>576</v>
       </c>
       <c r="B37" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="139" t="s">
+      <c r="C37" s="134" t="s">
         <v>570</v>
       </c>
       <c r="D37" s="94" t="s">
@@ -34355,17 +34355,17 @@
       <c r="K37" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L37" s="140" t="s">
+      <c r="L37" s="135" t="s">
         <v>244</v>
       </c>
       <c r="M37" s="123" t="str">
         <f>IF((L37=""),"",VLOOKUP(L37,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>25</v>
       </c>
-      <c r="N37" s="142" t="s">
+      <c r="N37" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="O37" s="140" t="s">
+      <c r="O37" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P37" s="131" t="str">
@@ -34375,7 +34375,7 @@
       <c r="Q37" s="97">
         <v>44343</v>
       </c>
-      <c r="R37" s="143" t="s">
+      <c r="R37" s="138" t="s">
         <v>133</v>
       </c>
       <c r="S37" s="93">
@@ -34399,13 +34399,13 @@
       </c>
     </row>
     <row r="38" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="133" t="s">
         <v>577</v>
       </c>
       <c r="B38" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="139" t="s">
+      <c r="C38" s="134" t="s">
         <v>571</v>
       </c>
       <c r="D38" s="94" t="s">
@@ -34432,17 +34432,17 @@
       <c r="K38" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L38" s="140" t="s">
+      <c r="L38" s="135" t="s">
         <v>244</v>
       </c>
       <c r="M38" s="123" t="str">
         <f>IF((L38=""),"",VLOOKUP(L38,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>25</v>
       </c>
-      <c r="N38" s="142" t="s">
+      <c r="N38" s="137" t="s">
         <v>256</v>
       </c>
-      <c r="O38" s="140" t="s">
+      <c r="O38" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P38" s="131" t="str">
@@ -34452,7 +34452,7 @@
       <c r="Q38" s="97">
         <v>44344</v>
       </c>
-      <c r="R38" s="143" t="s">
+      <c r="R38" s="138" t="s">
         <v>145</v>
       </c>
       <c r="S38" s="93">
@@ -34476,13 +34476,13 @@
       </c>
     </row>
     <row r="39" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="133" t="s">
         <v>578</v>
       </c>
       <c r="B39" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="139" t="s">
+      <c r="C39" s="134" t="s">
         <v>572</v>
       </c>
       <c r="D39" s="94" t="s">
@@ -34509,17 +34509,17 @@
       <c r="K39" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L39" s="140" t="s">
+      <c r="L39" s="135" t="s">
         <v>244</v>
       </c>
       <c r="M39" s="123" t="str">
         <f>IF((L39=""),"",VLOOKUP(L39,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>25</v>
       </c>
-      <c r="N39" s="142" t="s">
+      <c r="N39" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="O39" s="140" t="s">
+      <c r="O39" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P39" s="131" t="str">
@@ -34529,7 +34529,7 @@
       <c r="Q39" s="97">
         <v>44345</v>
       </c>
-      <c r="R39" s="143" t="s">
+      <c r="R39" s="138" t="s">
         <v>154</v>
       </c>
       <c r="S39" s="93">
@@ -34553,13 +34553,13 @@
       </c>
     </row>
     <row r="40" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="133" t="s">
         <v>579</v>
       </c>
       <c r="B40" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="139" t="s">
+      <c r="C40" s="134" t="s">
         <v>573</v>
       </c>
       <c r="D40" s="94" t="s">
@@ -34586,17 +34586,17 @@
       <c r="K40" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L40" s="140" t="s">
+      <c r="L40" s="135" t="s">
         <v>244</v>
       </c>
       <c r="M40" s="123" t="str">
         <f>IF((L40=""),"",VLOOKUP(L40,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>25</v>
       </c>
-      <c r="N40" s="142" t="s">
+      <c r="N40" s="137" t="s">
         <v>262</v>
       </c>
-      <c r="O40" s="140" t="s">
+      <c r="O40" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P40" s="131" t="str">
@@ -34606,7 +34606,7 @@
       <c r="Q40" s="97">
         <v>44346</v>
       </c>
-      <c r="R40" s="143" t="s">
+      <c r="R40" s="138" t="s">
         <v>162</v>
       </c>
       <c r="S40" s="93">
@@ -34630,13 +34630,13 @@
       </c>
     </row>
     <row r="41" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="138" t="s">
+      <c r="A41" s="133" t="s">
         <v>580</v>
       </c>
       <c r="B41" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="139" t="s">
+      <c r="C41" s="134" t="s">
         <v>574</v>
       </c>
       <c r="D41" s="94" t="s">
@@ -34663,17 +34663,17 @@
       <c r="K41" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L41" s="140" t="s">
+      <c r="L41" s="135" t="s">
         <v>244</v>
       </c>
       <c r="M41" s="123" t="str">
         <f>IF((L41=""),"",VLOOKUP(L41,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>25</v>
       </c>
-      <c r="N41" s="142" t="s">
+      <c r="N41" s="137" t="s">
         <v>265</v>
       </c>
-      <c r="O41" s="140" t="s">
+      <c r="O41" s="135" t="s">
         <v>167</v>
       </c>
       <c r="P41" s="131" t="str">
@@ -34683,7 +34683,7 @@
       <c r="Q41" s="97">
         <v>44347</v>
       </c>
-      <c r="R41" s="143" t="s">
+      <c r="R41" s="138" t="s">
         <v>169</v>
       </c>
       <c r="S41" s="93">
@@ -67169,7 +67169,6 @@
       <c r="AE1000" s="117"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MhNOP1737lzWu7/glyXwRb718pD5qT8aaLi5JoX8n/wZqyJ9FhlqeCCeU1CdiMy2yIOgutBD/xytsPYmQXH1Gw==" saltValue="aOZBIk0Hr9Xb2rbBEORBSw==" spinCount="100000" sheet="1"/>
   <mergeCells count="3">
     <mergeCell ref="A9:T9"/>
     <mergeCell ref="V9:W9"/>

--- a/tests/fixtures/orderforms/2184.5.sarscov2.xlsx
+++ b/tests/fixtures/orderforms/2184.5.sarscov2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik.grenfeldt/Documents/GitHub/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik.grenfeldt/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E88295-965D-7945-8776-0ACD2E6A2619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBF5A6A-046A-1F49-8811-1B10B3A47100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="-21100" windowWidth="20540" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -2137,20 +2137,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Region code: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automatically generated when "Region" is chosen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Region: </t>
     </r>
     <r>
@@ -2254,8 +2240,51 @@
     </r>
   </si>
   <si>
+    <t>Region, Original Lab and Collection date added</t>
+  </si>
+  <si>
+    <t>UDF/Lab Code</t>
+  </si>
+  <si>
+    <t>Lab Code</t>
+  </si>
+  <si>
+    <t>Synlab Medilab</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Collection date: </t>
+      <t xml:space="preserve">Region Code: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Automatically generated when "Region" is chosen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Region Code and Original Lab Address added (automatically generated)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lab Code: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Needed for delivery of files to FoHM. Options are available in drop-down list.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collection Date: </t>
     </r>
     <r>
       <rPr>
@@ -2279,168 +2308,148 @@
     </r>
   </si>
   <si>
-    <t>Region code and Original Lab address added to be automatically generated</t>
+    <t>sarscov2sample1</t>
   </si>
   <si>
-    <t>Region, Original Lab and Collection date added</t>
+    <t>sarscov2sample2</t>
   </si>
   <si>
-    <t>UDF/Lab Code</t>
+    <t>sarscov2sample3</t>
   </si>
   <si>
-    <t>Lab Code</t>
+    <t>sarscov2sample4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lab code: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Needed for delivery of files to FoHM. Options are available in drop-down list.</t>
-    </r>
+    <t>sarscov2sample5</t>
   </si>
   <si>
-    <t>Synlab Medilab</t>
+    <t>sarscov2sample6</t>
   </si>
   <si>
-    <t>sarscov2sample1</t>
+    <t>sarscov2sample7</t>
+  </si>
+  <si>
+    <t>sarscov2sample8</t>
+  </si>
+  <si>
+    <t>sarscov2sample9</t>
+  </si>
+  <si>
+    <t>sarscov2sample10</t>
+  </si>
+  <si>
+    <t>sarscov2sample11</t>
+  </si>
+  <si>
+    <t>sarscov2sample12</t>
+  </si>
+  <si>
+    <t>sarscov2sample13</t>
+  </si>
+  <si>
+    <t>sarscov2sample14</t>
+  </si>
+  <si>
+    <t>sarscov2sample15</t>
+  </si>
+  <si>
+    <t>sarscov2sample16</t>
+  </si>
+  <si>
+    <t>sarscov2sample17</t>
+  </si>
+  <si>
+    <t>sarscov2sample18</t>
+  </si>
+  <si>
+    <t>sarscov2sample19</t>
+  </si>
+  <si>
+    <t>sarscov2sample20</t>
+  </si>
+  <si>
+    <t>sarscov2sample21</t>
+  </si>
+  <si>
+    <t>sarscov2sample22</t>
+  </si>
+  <si>
+    <t>sarscov2sample23</t>
+  </si>
+  <si>
+    <t>sarscov2sample24</t>
+  </si>
+  <si>
+    <t>sarscov2sample25</t>
+  </si>
+  <si>
+    <t>sarscov2sample26</t>
+  </si>
+  <si>
+    <t>sarscov2sample27</t>
   </si>
   <si>
     <t>NC_000001</t>
   </si>
   <si>
-    <t>sarscov2sample2</t>
-  </si>
-  <si>
     <t>NC_000002</t>
-  </si>
-  <si>
-    <t>sarscov2sample3</t>
   </si>
   <si>
     <t>NC_000003</t>
   </si>
   <si>
-    <t>sarscov2sample4</t>
-  </si>
-  <si>
     <t>NC_000004</t>
-  </si>
-  <si>
-    <t>sarscov2sample5</t>
   </si>
   <si>
     <t>NC_000005</t>
   </si>
   <si>
-    <t>sarscov2sample6</t>
-  </si>
-  <si>
     <t>NC_000006</t>
-  </si>
-  <si>
-    <t>sarscov2sample7</t>
   </si>
   <si>
     <t>NC_000007</t>
   </si>
   <si>
-    <t>sarscov2sample8</t>
-  </si>
-  <si>
     <t>NC_000008</t>
-  </si>
-  <si>
-    <t>sarscov2sample9</t>
   </si>
   <si>
     <t>NC_000009</t>
   </si>
   <si>
-    <t>sarscov2sample10</t>
-  </si>
-  <si>
     <t>NC_000010</t>
-  </si>
-  <si>
-    <t>sarscov2sample11</t>
   </si>
   <si>
     <t>NC_000011</t>
   </si>
   <si>
-    <t>sarscov2sample12</t>
-  </si>
-  <si>
     <t>NC_000012</t>
-  </si>
-  <si>
-    <t>sarscov2sample13</t>
   </si>
   <si>
     <t>NC_000013</t>
   </si>
   <si>
-    <t>sarscov2sample14</t>
-  </si>
-  <si>
     <t>NC_000014</t>
-  </si>
-  <si>
-    <t>sarscov2sample15</t>
   </si>
   <si>
     <t>NC_000015</t>
   </si>
   <si>
-    <t>sarscov2sample16</t>
-  </si>
-  <si>
     <t>NC_000016</t>
-  </si>
-  <si>
-    <t>sarscov2sample17</t>
   </si>
   <si>
     <t>NC_000017</t>
   </si>
   <si>
-    <t>sarscov2sample18</t>
-  </si>
-  <si>
     <t>NC_000018</t>
-  </si>
-  <si>
-    <t>sarscov2sample19</t>
   </si>
   <si>
     <t>NC_000019</t>
   </si>
   <si>
-    <t>sarscov2sample20</t>
-  </si>
-  <si>
     <t>NC_000020</t>
   </si>
   <si>
-    <t>sarscov2sample21</t>
-  </si>
-  <si>
     <t>NC_000021</t>
-  </si>
-  <si>
-    <t>plate1</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>sample comment</t>
   </si>
   <si>
     <t>NC_000022</t>
@@ -2461,22 +2470,13 @@
     <t>NC_000027</t>
   </si>
   <si>
-    <t>sarscov2sample22</t>
+    <t>plate1</t>
   </si>
   <si>
-    <t>sarscov2sample23</t>
+    <t>unknown</t>
   </si>
   <si>
-    <t>sarscov2sample24</t>
-  </si>
-  <si>
-    <t>sarscov2sample25</t>
-  </si>
-  <si>
-    <t>sarscov2sample26</t>
-  </si>
-  <si>
-    <t>sarscov2sample27</t>
+    <t>sample comment</t>
   </si>
 </sst>
 </file>
@@ -3049,7 +3049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3463,6 +3463,27 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3482,24 +3503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3797,8 +3800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3816,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -3882,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <v>44327</v>
+        <v>44334</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -3998,7 +4001,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4256,7 +4259,7 @@
     </row>
     <row r="16" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="44" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4285,8 +4288,8 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44" t="s">
-        <v>518</v>
+      <c r="A17" s="133" t="s">
+        <v>521</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4882,7 +4885,7 @@
     </row>
     <row r="37" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="9"/>
@@ -4911,8 +4914,8 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="38" t="s">
-        <v>509</v>
+      <c r="A38" s="14" t="s">
+        <v>520</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="9"/>
@@ -4972,7 +4975,7 @@
     </row>
     <row r="40" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="9"/>
@@ -5002,7 +5005,7 @@
     </row>
     <row r="41" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="9"/>
@@ -5031,8 +5034,8 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="38" t="s">
-        <v>517</v>
+      <c r="A42" s="14" t="s">
+        <v>523</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
@@ -5062,7 +5065,7 @@
     </row>
     <row r="43" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="9"/>
@@ -5300,7 +5303,7 @@
     </row>
     <row r="51" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5448,7 +5451,7 @@
     </row>
     <row r="56" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -31965,7 +31968,7 @@
       <c r="Z1002" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+yxXZsYnRA2YE8WVT+Vc7E/SGBAalWCddWklQzRK0rzk8sYFYDJWJ8QI5XwPPOZwCjFA59kYdS/AmRDfWVfiWw==" saltValue="wUP5DJX52iY3FDu7Q1X2Iw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LFrxBZR0xTa7wXPPQAaREgGu+OyUSlLYvEOThfNnIa/q2HbuaoZHhfdfoS49KFkidLw1y+gjfPFBsLpuLEuyMA==" saltValue="a/17TLdz+ZZKNVi4jNe3cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -31982,8 +31985,8 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O8" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32296,43 +32299,43 @@
       <c r="AE8" s="69"/>
     </row>
     <row r="9" spans="1:31" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="141"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="136"/>
       <c r="U9" s="71"/>
-      <c r="V9" s="142" t="s">
+      <c r="V9" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="141"/>
+      <c r="W9" s="136"/>
       <c r="X9" s="71"/>
       <c r="Y9" s="72" t="s">
         <v>43</v>
       </c>
       <c r="Z9" s="71"/>
-      <c r="AA9" s="143" t="s">
+      <c r="AA9" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="140"/>
-      <c r="AC9" s="141"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="136"/>
       <c r="AD9" s="73"/>
       <c r="AE9" s="73"/>
     </row>
@@ -32412,7 +32415,7 @@
         <v>57</v>
       </c>
       <c r="N11" s="76" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O11" s="76" t="s">
         <v>58</v>
@@ -32534,7 +32537,7 @@
         <v>84</v>
       </c>
       <c r="N13" s="88" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O13" s="87" t="s">
         <v>85</v>
@@ -32616,14 +32619,14 @@
       <c r="AE14" s="90"/>
     </row>
     <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="139" t="s">
         <v>524</v>
       </c>
       <c r="B15" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="134" t="s">
-        <v>525</v>
+      <c r="C15" s="140" t="s">
+        <v>551</v>
       </c>
       <c r="D15" s="94" t="s">
         <v>107</v>
@@ -32649,17 +32652,17 @@
       <c r="K15" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L15" s="135" t="s">
+      <c r="L15" s="141" t="s">
         <v>115</v>
       </c>
       <c r="M15" s="123" t="str">
         <f>IF((L15=""),"",VLOOKUP(L15,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>01</v>
       </c>
-      <c r="N15" s="137" t="s">
+      <c r="N15" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="135" t="s">
+      <c r="O15" s="141" t="s">
         <v>117</v>
       </c>
       <c r="P15" s="131" t="str">
@@ -32669,7 +32672,7 @@
       <c r="Q15" s="97">
         <v>44321</v>
       </c>
-      <c r="R15" s="138" t="s">
+      <c r="R15" s="144" t="s">
         <v>119</v>
       </c>
       <c r="S15" s="93">
@@ -32680,14 +32683,14 @@
       </c>
       <c r="U15" s="98"/>
       <c r="V15" s="99" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="W15" s="100" t="s">
         <v>121</v>
       </c>
       <c r="X15" s="101"/>
       <c r="Y15" s="102" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="Z15" s="103"/>
       <c r="AA15" s="99">
@@ -32697,7 +32700,7 @@
         <v>3</v>
       </c>
       <c r="AC15" s="102" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="AD15" s="75"/>
       <c r="AE15" s="104" t="s">
@@ -32705,14 +32708,14 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="133" t="s">
-        <v>526</v>
+      <c r="A16" s="139" t="s">
+        <v>525</v>
       </c>
       <c r="B16" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="134" t="s">
-        <v>527</v>
+      <c r="C16" s="140" t="s">
+        <v>552</v>
       </c>
       <c r="D16" s="94" t="s">
         <v>107</v>
@@ -32738,18 +32741,18 @@
       <c r="K16" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="135" t="s">
+      <c r="L16" s="141" t="s">
         <v>130</v>
       </c>
       <c r="M16" s="123" t="str">
         <f>IF((L16=""),"",VLOOKUP(L16,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>03</v>
       </c>
-      <c r="N16" s="137" t="s">
+      <c r="N16" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="O16" s="135" t="s">
-        <v>523</v>
+      <c r="O16" s="141" t="s">
+        <v>519</v>
       </c>
       <c r="P16" s="131" t="str">
         <f>IF((O16=""),"",VLOOKUP(O16,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
@@ -32758,7 +32761,7 @@
       <c r="Q16" s="97">
         <v>44322</v>
       </c>
-      <c r="R16" s="138" t="s">
+      <c r="R16" s="144" t="s">
         <v>133</v>
       </c>
       <c r="S16" s="93">
@@ -32782,14 +32785,14 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="133" t="s">
-        <v>528</v>
+      <c r="A17" s="139" t="s">
+        <v>526</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="134" t="s">
-        <v>529</v>
+      <c r="C17" s="140" t="s">
+        <v>553</v>
       </c>
       <c r="D17" s="94" t="s">
         <v>107</v>
@@ -32815,17 +32818,17 @@
       <c r="K17" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="135" t="s">
+      <c r="L17" s="141" t="s">
         <v>141</v>
       </c>
       <c r="M17" s="123" t="str">
         <f>IF((L17=""),"",VLOOKUP(L17,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>04</v>
       </c>
-      <c r="N17" s="137" t="s">
+      <c r="N17" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="O17" s="135" t="s">
+      <c r="O17" s="141" t="s">
         <v>143</v>
       </c>
       <c r="P17" s="131" t="str">
@@ -32835,7 +32838,7 @@
       <c r="Q17" s="97">
         <v>44323</v>
       </c>
-      <c r="R17" s="138" t="s">
+      <c r="R17" s="144" t="s">
         <v>145</v>
       </c>
       <c r="S17" s="93">
@@ -32859,14 +32862,14 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="133" t="s">
-        <v>530</v>
+      <c r="A18" s="139" t="s">
+        <v>527</v>
       </c>
       <c r="B18" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="134" t="s">
-        <v>531</v>
+      <c r="C18" s="140" t="s">
+        <v>554</v>
       </c>
       <c r="D18" s="94" t="s">
         <v>107</v>
@@ -32892,17 +32895,17 @@
       <c r="K18" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="135" t="s">
+      <c r="L18" s="141" t="s">
         <v>150</v>
       </c>
       <c r="M18" s="123" t="str">
         <f>IF((L18=""),"",VLOOKUP(L18,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>05</v>
       </c>
-      <c r="N18" s="137" t="s">
+      <c r="N18" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="O18" s="135" t="s">
+      <c r="O18" s="141" t="s">
         <v>152</v>
       </c>
       <c r="P18" s="131" t="str">
@@ -32912,7 +32915,7 @@
       <c r="Q18" s="97">
         <v>44324</v>
       </c>
-      <c r="R18" s="138" t="s">
+      <c r="R18" s="144" t="s">
         <v>154</v>
       </c>
       <c r="S18" s="93">
@@ -32936,14 +32939,14 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="133" t="s">
-        <v>532</v>
+      <c r="A19" s="139" t="s">
+        <v>528</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="134" t="s">
-        <v>533</v>
+      <c r="C19" s="140" t="s">
+        <v>555</v>
       </c>
       <c r="D19" s="94" t="s">
         <v>107</v>
@@ -32969,17 +32972,17 @@
       <c r="K19" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="135" t="s">
+      <c r="L19" s="141" t="s">
         <v>158</v>
       </c>
       <c r="M19" s="123" t="str">
         <f>IF((L19=""),"",VLOOKUP(L19,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>06</v>
       </c>
-      <c r="N19" s="137" t="s">
+      <c r="N19" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="135" t="s">
+      <c r="O19" s="141" t="s">
         <v>160</v>
       </c>
       <c r="P19" s="131" t="str">
@@ -32989,7 +32992,7 @@
       <c r="Q19" s="97">
         <v>44325</v>
       </c>
-      <c r="R19" s="138" t="s">
+      <c r="R19" s="144" t="s">
         <v>162</v>
       </c>
       <c r="S19" s="93">
@@ -33013,14 +33016,14 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="133" t="s">
-        <v>534</v>
+      <c r="A20" s="139" t="s">
+        <v>529</v>
       </c>
       <c r="B20" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="134" t="s">
-        <v>535</v>
+      <c r="C20" s="140" t="s">
+        <v>556</v>
       </c>
       <c r="D20" s="94" t="s">
         <v>107</v>
@@ -33046,17 +33049,17 @@
       <c r="K20" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="135" t="s">
+      <c r="L20" s="141" t="s">
         <v>102</v>
       </c>
       <c r="M20" s="123" t="str">
         <f>IF((L20=""),"",VLOOKUP(L20,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>07</v>
       </c>
-      <c r="N20" s="137" t="s">
+      <c r="N20" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="O20" s="135" t="s">
+      <c r="O20" s="141" t="s">
         <v>167</v>
       </c>
       <c r="P20" s="131" t="str">
@@ -33066,7 +33069,7 @@
       <c r="Q20" s="97">
         <v>44326</v>
       </c>
-      <c r="R20" s="138" t="s">
+      <c r="R20" s="144" t="s">
         <v>169</v>
       </c>
       <c r="S20" s="93">
@@ -33090,14 +33093,14 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="133" t="s">
-        <v>536</v>
+      <c r="A21" s="139" t="s">
+        <v>530</v>
       </c>
       <c r="B21" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="134" t="s">
-        <v>537</v>
+      <c r="C21" s="140" t="s">
+        <v>557</v>
       </c>
       <c r="D21" s="94" t="s">
         <v>107</v>
@@ -33123,27 +33126,27 @@
       <c r="K21" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L21" s="135" t="s">
+      <c r="L21" s="141" t="s">
         <v>173</v>
       </c>
       <c r="M21" s="123" t="str">
         <f>IF((L21=""),"",VLOOKUP(L21,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>08</v>
       </c>
-      <c r="N21" s="137" t="s">
+      <c r="N21" s="143" t="s">
         <v>177</v>
       </c>
-      <c r="O21" s="135" t="s">
-        <v>167</v>
+      <c r="O21" s="141" t="s">
+        <v>117</v>
       </c>
       <c r="P21" s="131" t="str">
         <f>IF((O21=""),"",VLOOKUP(O21,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 54 Solna</v>
       </c>
       <c r="Q21" s="97">
         <v>44327</v>
       </c>
-      <c r="R21" s="138" t="s">
+      <c r="R21" s="144" t="s">
         <v>175</v>
       </c>
       <c r="S21" s="93">
@@ -33167,14 +33170,14 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="133" t="s">
-        <v>538</v>
+      <c r="A22" s="139" t="s">
+        <v>531</v>
       </c>
       <c r="B22" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="134" t="s">
-        <v>539</v>
+      <c r="C22" s="140" t="s">
+        <v>558</v>
       </c>
       <c r="D22" s="94" t="s">
         <v>107</v>
@@ -33200,27 +33203,27 @@
       <c r="K22" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L22" s="135" t="s">
+      <c r="L22" s="141" t="s">
         <v>179</v>
       </c>
       <c r="M22" s="123" t="str">
         <f>IF((L22=""),"",VLOOKUP(L22,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>09</v>
       </c>
-      <c r="N22" s="137" t="s">
+      <c r="N22" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="O22" s="135" t="s">
-        <v>167</v>
+      <c r="O22" s="141" t="s">
+        <v>519</v>
       </c>
       <c r="P22" s="131" t="str">
         <f>IF((O22=""),"",VLOOKUP(O22,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>183 53 Täby</v>
       </c>
       <c r="Q22" s="97">
         <v>44328</v>
       </c>
-      <c r="R22" s="138" t="s">
+      <c r="R22" s="144" t="s">
         <v>119</v>
       </c>
       <c r="S22" s="93">
@@ -33244,14 +33247,14 @@
       </c>
     </row>
     <row r="23" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="133" t="s">
-        <v>540</v>
+      <c r="A23" s="139" t="s">
+        <v>532</v>
       </c>
       <c r="B23" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="134" t="s">
-        <v>541</v>
+      <c r="C23" s="140" t="s">
+        <v>559</v>
       </c>
       <c r="D23" s="94" t="s">
         <v>107</v>
@@ -33277,27 +33280,27 @@
       <c r="K23" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="135" t="s">
+      <c r="L23" s="141" t="s">
         <v>184</v>
       </c>
       <c r="M23" s="123" t="str">
         <f>IF((L23=""),"",VLOOKUP(L23,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>10</v>
       </c>
-      <c r="N23" s="137" t="s">
+      <c r="N23" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="O23" s="135" t="s">
-        <v>167</v>
+      <c r="O23" s="141" t="s">
+        <v>143</v>
       </c>
       <c r="P23" s="131" t="str">
         <f>IF((O23=""),"",VLOOKUP(O23,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 65 Solna</v>
       </c>
       <c r="Q23" s="97">
         <v>44329</v>
       </c>
-      <c r="R23" s="138" t="s">
+      <c r="R23" s="144" t="s">
         <v>133</v>
       </c>
       <c r="S23" s="93">
@@ -33321,14 +33324,14 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="133" t="s">
-        <v>542</v>
+      <c r="A24" s="139" t="s">
+        <v>533</v>
       </c>
       <c r="B24" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="134" t="s">
-        <v>543</v>
+      <c r="C24" s="140" t="s">
+        <v>560</v>
       </c>
       <c r="D24" s="94" t="s">
         <v>107</v>
@@ -33354,27 +33357,27 @@
       <c r="K24" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L24" s="135" t="s">
+      <c r="L24" s="141" t="s">
         <v>189</v>
       </c>
       <c r="M24" s="123" t="str">
         <f>IF((L24=""),"",VLOOKUP(L24,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="N24" s="137" t="s">
+      <c r="N24" s="143" t="s">
         <v>192</v>
       </c>
-      <c r="O24" s="135" t="s">
-        <v>167</v>
+      <c r="O24" s="141" t="s">
+        <v>152</v>
       </c>
       <c r="P24" s="131" t="str">
         <f>IF((O24=""),"",VLOOKUP(O24,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 76 Stockholm</v>
       </c>
       <c r="Q24" s="97">
         <v>44330</v>
       </c>
-      <c r="R24" s="138" t="s">
+      <c r="R24" s="144" t="s">
         <v>145</v>
       </c>
       <c r="S24" s="93">
@@ -33398,14 +33401,14 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="133" t="s">
-        <v>544</v>
+      <c r="A25" s="139" t="s">
+        <v>534</v>
       </c>
       <c r="B25" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="134" t="s">
-        <v>545</v>
+      <c r="C25" s="140" t="s">
+        <v>561</v>
       </c>
       <c r="D25" s="94" t="s">
         <v>107</v>
@@ -33431,27 +33434,27 @@
       <c r="K25" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L25" s="135" t="s">
+      <c r="L25" s="141" t="s">
         <v>194</v>
       </c>
       <c r="M25" s="123" t="str">
         <f>IF((L25=""),"",VLOOKUP(L25,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>13</v>
       </c>
-      <c r="N25" s="137" t="s">
+      <c r="N25" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="O25" s="135" t="s">
-        <v>167</v>
+      <c r="O25" s="141" t="s">
+        <v>160</v>
       </c>
       <c r="P25" s="131" t="str">
         <f>IF((O25=""),"",VLOOKUP(O25,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>141 86 Stockholm</v>
       </c>
       <c r="Q25" s="97">
         <v>44331</v>
       </c>
-      <c r="R25" s="138" t="s">
+      <c r="R25" s="144" t="s">
         <v>154</v>
       </c>
       <c r="S25" s="93">
@@ -33475,14 +33478,14 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="133" t="s">
-        <v>546</v>
+      <c r="A26" s="139" t="s">
+        <v>535</v>
       </c>
       <c r="B26" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="134" t="s">
-        <v>547</v>
+      <c r="C26" s="140" t="s">
+        <v>562</v>
       </c>
       <c r="D26" s="94" t="s">
         <v>107</v>
@@ -33508,17 +33511,17 @@
       <c r="K26" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="136" t="s">
+      <c r="L26" s="142" t="s">
         <v>199</v>
       </c>
       <c r="M26" s="123" t="str">
         <f>IF((L26=""),"",VLOOKUP(L26,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>14</v>
       </c>
-      <c r="N26" s="137" t="s">
+      <c r="N26" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="O26" s="135" t="s">
+      <c r="O26" s="141" t="s">
         <v>167</v>
       </c>
       <c r="P26" s="131" t="str">
@@ -33528,7 +33531,7 @@
       <c r="Q26" s="97">
         <v>44332</v>
       </c>
-      <c r="R26" s="138" t="s">
+      <c r="R26" s="144" t="s">
         <v>162</v>
       </c>
       <c r="S26" s="93">
@@ -33552,14 +33555,14 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="133" t="s">
-        <v>548</v>
+      <c r="A27" s="139" t="s">
+        <v>536</v>
       </c>
       <c r="B27" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="134" t="s">
-        <v>549</v>
+      <c r="C27" s="140" t="s">
+        <v>563</v>
       </c>
       <c r="D27" s="94" t="s">
         <v>107</v>
@@ -33585,27 +33588,27 @@
       <c r="K27" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L27" s="135" t="s">
+      <c r="L27" s="141" t="s">
         <v>204</v>
       </c>
       <c r="M27" s="123" t="str">
         <f>IF((L27=""),"",VLOOKUP(L27,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>17</v>
       </c>
-      <c r="N27" s="137" t="s">
+      <c r="N27" s="143" t="s">
         <v>207</v>
       </c>
-      <c r="O27" s="135" t="s">
-        <v>167</v>
+      <c r="O27" s="141" t="s">
+        <v>117</v>
       </c>
       <c r="P27" s="131" t="str">
         <f>IF((O27=""),"",VLOOKUP(O27,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 54 Solna</v>
       </c>
       <c r="Q27" s="97">
         <v>44333</v>
       </c>
-      <c r="R27" s="138" t="s">
+      <c r="R27" s="144" t="s">
         <v>169</v>
       </c>
       <c r="S27" s="93">
@@ -33629,14 +33632,14 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="133" t="s">
-        <v>550</v>
+      <c r="A28" s="139" t="s">
+        <v>537</v>
       </c>
       <c r="B28" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="134" t="s">
-        <v>551</v>
+      <c r="C28" s="140" t="s">
+        <v>564</v>
       </c>
       <c r="D28" s="94" t="s">
         <v>107</v>
@@ -33662,27 +33665,27 @@
       <c r="K28" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L28" s="135" t="s">
+      <c r="L28" s="141" t="s">
         <v>209</v>
       </c>
       <c r="M28" s="123" t="str">
         <f>IF((L28=""),"",VLOOKUP(L28,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>18</v>
       </c>
-      <c r="N28" s="137" t="s">
+      <c r="N28" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="O28" s="135" t="s">
-        <v>167</v>
+      <c r="O28" s="141" t="s">
+        <v>519</v>
       </c>
       <c r="P28" s="131" t="str">
         <f>IF((O28=""),"",VLOOKUP(O28,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>183 53 Täby</v>
       </c>
       <c r="Q28" s="97">
         <v>44334</v>
       </c>
-      <c r="R28" s="138" t="s">
+      <c r="R28" s="144" t="s">
         <v>175</v>
       </c>
       <c r="S28" s="93">
@@ -33706,14 +33709,14 @@
       </c>
     </row>
     <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="133" t="s">
-        <v>552</v>
+      <c r="A29" s="139" t="s">
+        <v>538</v>
       </c>
       <c r="B29" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="134" t="s">
-        <v>553</v>
+      <c r="C29" s="140" t="s">
+        <v>565</v>
       </c>
       <c r="D29" s="94" t="s">
         <v>107</v>
@@ -33739,27 +33742,27 @@
       <c r="K29" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="135" t="s">
+      <c r="L29" s="141" t="s">
         <v>214</v>
       </c>
       <c r="M29" s="123" t="str">
         <f>IF((L29=""),"",VLOOKUP(L29,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>19</v>
       </c>
-      <c r="N29" s="137" t="s">
+      <c r="N29" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="O29" s="135" t="s">
-        <v>167</v>
+      <c r="O29" s="141" t="s">
+        <v>143</v>
       </c>
       <c r="P29" s="131" t="str">
         <f>IF((O29=""),"",VLOOKUP(O29,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 65 Solna</v>
       </c>
       <c r="Q29" s="97">
         <v>44335</v>
       </c>
-      <c r="R29" s="138" t="s">
+      <c r="R29" s="144" t="s">
         <v>119</v>
       </c>
       <c r="S29" s="93">
@@ -33783,14 +33786,14 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="133" t="s">
-        <v>554</v>
+      <c r="A30" s="139" t="s">
+        <v>539</v>
       </c>
       <c r="B30" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="134" t="s">
-        <v>555</v>
+      <c r="C30" s="140" t="s">
+        <v>566</v>
       </c>
       <c r="D30" s="94" t="s">
         <v>107</v>
@@ -33816,27 +33819,27 @@
       <c r="K30" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L30" s="135" t="s">
+      <c r="L30" s="141" t="s">
         <v>219</v>
       </c>
       <c r="M30" s="123" t="str">
         <f>IF((L30=""),"",VLOOKUP(L30,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>20</v>
       </c>
-      <c r="N30" s="137" t="s">
+      <c r="N30" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="O30" s="135" t="s">
-        <v>167</v>
+      <c r="O30" s="141" t="s">
+        <v>152</v>
       </c>
       <c r="P30" s="131" t="str">
         <f>IF((O30=""),"",VLOOKUP(O30,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 76 Stockholm</v>
       </c>
       <c r="Q30" s="97">
         <v>44336</v>
       </c>
-      <c r="R30" s="138" t="s">
+      <c r="R30" s="144" t="s">
         <v>133</v>
       </c>
       <c r="S30" s="93">
@@ -33860,14 +33863,14 @@
       </c>
     </row>
     <row r="31" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="133" t="s">
-        <v>556</v>
+      <c r="A31" s="139" t="s">
+        <v>540</v>
       </c>
       <c r="B31" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="134" t="s">
-        <v>557</v>
+      <c r="C31" s="140" t="s">
+        <v>567</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>107</v>
@@ -33893,27 +33896,27 @@
       <c r="K31" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L31" s="135" t="s">
+      <c r="L31" s="141" t="s">
         <v>224</v>
       </c>
       <c r="M31" s="123" t="str">
         <f>IF((L31=""),"",VLOOKUP(L31,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>21</v>
       </c>
-      <c r="N31" s="137" t="s">
+      <c r="N31" s="143" t="s">
         <v>227</v>
       </c>
-      <c r="O31" s="135" t="s">
-        <v>167</v>
+      <c r="O31" s="141" t="s">
+        <v>160</v>
       </c>
       <c r="P31" s="131" t="str">
         <f>IF((O31=""),"",VLOOKUP(O31,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>141 86 Stockholm</v>
       </c>
       <c r="Q31" s="97">
         <v>44337</v>
       </c>
-      <c r="R31" s="138" t="s">
+      <c r="R31" s="144" t="s">
         <v>145</v>
       </c>
       <c r="S31" s="93">
@@ -33937,14 +33940,14 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="133" t="s">
-        <v>558</v>
+      <c r="A32" s="139" t="s">
+        <v>541</v>
       </c>
       <c r="B32" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="134" t="s">
-        <v>559</v>
+      <c r="C32" s="140" t="s">
+        <v>568</v>
       </c>
       <c r="D32" s="94" t="s">
         <v>107</v>
@@ -33970,17 +33973,17 @@
       <c r="K32" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L32" s="135" t="s">
+      <c r="L32" s="141" t="s">
         <v>229</v>
       </c>
       <c r="M32" s="123" t="str">
         <f>IF((L32=""),"",VLOOKUP(L32,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>22</v>
       </c>
-      <c r="N32" s="137" t="s">
+      <c r="N32" s="143" t="s">
         <v>232</v>
       </c>
-      <c r="O32" s="135" t="s">
+      <c r="O32" s="141" t="s">
         <v>167</v>
       </c>
       <c r="P32" s="131" t="str">
@@ -33990,7 +33993,7 @@
       <c r="Q32" s="97">
         <v>44338</v>
       </c>
-      <c r="R32" s="138" t="s">
+      <c r="R32" s="144" t="s">
         <v>154</v>
       </c>
       <c r="S32" s="93">
@@ -34014,14 +34017,14 @@
       </c>
     </row>
     <row r="33" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="133" t="s">
-        <v>560</v>
+      <c r="A33" s="139" t="s">
+        <v>542</v>
       </c>
       <c r="B33" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="134" t="s">
-        <v>561</v>
+      <c r="C33" s="140" t="s">
+        <v>569</v>
       </c>
       <c r="D33" s="94" t="s">
         <v>107</v>
@@ -34047,27 +34050,27 @@
       <c r="K33" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L33" s="135" t="s">
+      <c r="L33" s="141" t="s">
         <v>234</v>
       </c>
       <c r="M33" s="123" t="str">
         <f>IF((L33=""),"",VLOOKUP(L33,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>23</v>
       </c>
-      <c r="N33" s="137" t="s">
+      <c r="N33" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="O33" s="135" t="s">
-        <v>167</v>
+      <c r="O33" s="141" t="s">
+        <v>117</v>
       </c>
       <c r="P33" s="131" t="str">
         <f>IF((O33=""),"",VLOOKUP(O33,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 54 Solna</v>
       </c>
       <c r="Q33" s="97">
         <v>44339</v>
       </c>
-      <c r="R33" s="138" t="s">
+      <c r="R33" s="144" t="s">
         <v>162</v>
       </c>
       <c r="S33" s="93">
@@ -34091,14 +34094,14 @@
       </c>
     </row>
     <row r="34" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="133" t="s">
-        <v>562</v>
+      <c r="A34" s="139" t="s">
+        <v>543</v>
       </c>
       <c r="B34" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="134" t="s">
-        <v>563</v>
+      <c r="C34" s="140" t="s">
+        <v>570</v>
       </c>
       <c r="D34" s="94" t="s">
         <v>107</v>
@@ -34124,27 +34127,27 @@
       <c r="K34" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L34" s="135" t="s">
+      <c r="L34" s="141" t="s">
         <v>239</v>
       </c>
       <c r="M34" s="123" t="str">
         <f>IF((L34=""),"",VLOOKUP(L34,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="N34" s="137" t="s">
+      <c r="N34" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="O34" s="135" t="s">
-        <v>167</v>
+      <c r="O34" s="141" t="s">
+        <v>519</v>
       </c>
       <c r="P34" s="131" t="str">
         <f>IF((O34=""),"",VLOOKUP(O34,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>183 53 Täby</v>
       </c>
       <c r="Q34" s="97">
         <v>44340</v>
       </c>
-      <c r="R34" s="138" t="s">
+      <c r="R34" s="144" t="s">
         <v>169</v>
       </c>
       <c r="S34" s="93">
@@ -34168,14 +34171,14 @@
       </c>
     </row>
     <row r="35" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="133" t="s">
-        <v>564</v>
+      <c r="A35" s="139" t="s">
+        <v>544</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="134" t="s">
-        <v>565</v>
+      <c r="C35" s="140" t="s">
+        <v>571</v>
       </c>
       <c r="D35" s="94" t="s">
         <v>107</v>
@@ -34201,27 +34204,27 @@
       <c r="K35" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="135" t="s">
+      <c r="L35" s="141" t="s">
         <v>244</v>
       </c>
       <c r="M35" s="123" t="str">
         <f>IF((L35=""),"",VLOOKUP(L35,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
         <v>25</v>
       </c>
-      <c r="N35" s="137" t="s">
+      <c r="N35" s="143" t="s">
         <v>247</v>
       </c>
-      <c r="O35" s="135" t="s">
-        <v>167</v>
+      <c r="O35" s="141" t="s">
+        <v>143</v>
       </c>
       <c r="P35" s="131" t="str">
         <f>IF((O35=""),"",VLOOKUP(O35,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 65 Solna</v>
       </c>
       <c r="Q35" s="97">
         <v>44341</v>
       </c>
-      <c r="R35" s="138" t="s">
+      <c r="R35" s="144" t="s">
         <v>175</v>
       </c>
       <c r="S35" s="93">
@@ -34245,14 +34248,14 @@
       </c>
     </row>
     <row r="36" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="133" t="s">
-        <v>575</v>
+      <c r="A36" s="139" t="s">
+        <v>545</v>
       </c>
       <c r="B36" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="134" t="s">
-        <v>569</v>
+      <c r="C36" s="140" t="s">
+        <v>572</v>
       </c>
       <c r="D36" s="94" t="s">
         <v>107</v>
@@ -34278,27 +34281,27 @@
       <c r="K36" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L36" s="135" t="s">
-        <v>244</v>
+      <c r="L36" s="141" t="s">
+        <v>115</v>
       </c>
       <c r="M36" s="123" t="str">
         <f>IF((L36=""),"",VLOOKUP(L36,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
-        <v>25</v>
-      </c>
-      <c r="N36" s="137" t="s">
+        <v>01</v>
+      </c>
+      <c r="N36" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="O36" s="135" t="s">
-        <v>167</v>
+      <c r="O36" s="141" t="s">
+        <v>152</v>
       </c>
       <c r="P36" s="131" t="str">
         <f>IF((O36=""),"",VLOOKUP(O36,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 76 Stockholm</v>
       </c>
       <c r="Q36" s="97">
         <v>44342</v>
       </c>
-      <c r="R36" s="138" t="s">
+      <c r="R36" s="144" t="s">
         <v>119</v>
       </c>
       <c r="S36" s="93">
@@ -34322,14 +34325,14 @@
       </c>
     </row>
     <row r="37" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="133" t="s">
-        <v>576</v>
+      <c r="A37" s="139" t="s">
+        <v>546</v>
       </c>
       <c r="B37" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="134" t="s">
-        <v>570</v>
+      <c r="C37" s="140" t="s">
+        <v>573</v>
       </c>
       <c r="D37" s="94" t="s">
         <v>107</v>
@@ -34355,27 +34358,27 @@
       <c r="K37" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L37" s="135" t="s">
-        <v>244</v>
+      <c r="L37" s="141" t="s">
+        <v>130</v>
       </c>
       <c r="M37" s="123" t="str">
         <f>IF((L37=""),"",VLOOKUP(L37,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
-        <v>25</v>
-      </c>
-      <c r="N37" s="137" t="s">
+        <v>03</v>
+      </c>
+      <c r="N37" s="143" t="s">
         <v>253</v>
       </c>
-      <c r="O37" s="135" t="s">
-        <v>167</v>
+      <c r="O37" s="141" t="s">
+        <v>160</v>
       </c>
       <c r="P37" s="131" t="str">
         <f>IF((O37=""),"",VLOOKUP(O37,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>141 86 Stockholm</v>
       </c>
       <c r="Q37" s="97">
         <v>44343</v>
       </c>
-      <c r="R37" s="138" t="s">
+      <c r="R37" s="144" t="s">
         <v>133</v>
       </c>
       <c r="S37" s="93">
@@ -34399,14 +34402,14 @@
       </c>
     </row>
     <row r="38" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="133" t="s">
-        <v>577</v>
+      <c r="A38" s="139" t="s">
+        <v>547</v>
       </c>
       <c r="B38" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="134" t="s">
-        <v>571</v>
+      <c r="C38" s="140" t="s">
+        <v>574</v>
       </c>
       <c r="D38" s="94" t="s">
         <v>107</v>
@@ -34432,17 +34435,17 @@
       <c r="K38" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L38" s="135" t="s">
-        <v>244</v>
+      <c r="L38" s="141" t="s">
+        <v>141</v>
       </c>
       <c r="M38" s="123" t="str">
         <f>IF((L38=""),"",VLOOKUP(L38,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
-        <v>25</v>
-      </c>
-      <c r="N38" s="137" t="s">
+        <v>04</v>
+      </c>
+      <c r="N38" s="143" t="s">
         <v>256</v>
       </c>
-      <c r="O38" s="135" t="s">
+      <c r="O38" s="141" t="s">
         <v>167</v>
       </c>
       <c r="P38" s="131" t="str">
@@ -34452,7 +34455,7 @@
       <c r="Q38" s="97">
         <v>44344</v>
       </c>
-      <c r="R38" s="138" t="s">
+      <c r="R38" s="144" t="s">
         <v>145</v>
       </c>
       <c r="S38" s="93">
@@ -34476,14 +34479,14 @@
       </c>
     </row>
     <row r="39" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="133" t="s">
-        <v>578</v>
+      <c r="A39" s="139" t="s">
+        <v>548</v>
       </c>
       <c r="B39" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="134" t="s">
-        <v>572</v>
+      <c r="C39" s="140" t="s">
+        <v>575</v>
       </c>
       <c r="D39" s="94" t="s">
         <v>107</v>
@@ -34509,27 +34512,27 @@
       <c r="K39" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L39" s="135" t="s">
-        <v>244</v>
+      <c r="L39" s="141" t="s">
+        <v>150</v>
       </c>
       <c r="M39" s="123" t="str">
         <f>IF((L39=""),"",VLOOKUP(L39,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
-        <v>25</v>
-      </c>
-      <c r="N39" s="137" t="s">
+        <v>05</v>
+      </c>
+      <c r="N39" s="143" t="s">
         <v>259</v>
       </c>
-      <c r="O39" s="135" t="s">
-        <v>167</v>
+      <c r="O39" s="141" t="s">
+        <v>117</v>
       </c>
       <c r="P39" s="131" t="str">
         <f>IF((O39=""),"",VLOOKUP(O39,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 54 Solna</v>
       </c>
       <c r="Q39" s="97">
         <v>44345</v>
       </c>
-      <c r="R39" s="138" t="s">
+      <c r="R39" s="144" t="s">
         <v>154</v>
       </c>
       <c r="S39" s="93">
@@ -34553,14 +34556,14 @@
       </c>
     </row>
     <row r="40" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="133" t="s">
-        <v>579</v>
+      <c r="A40" s="139" t="s">
+        <v>549</v>
       </c>
       <c r="B40" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="134" t="s">
-        <v>573</v>
+      <c r="C40" s="140" t="s">
+        <v>576</v>
       </c>
       <c r="D40" s="94" t="s">
         <v>107</v>
@@ -34586,27 +34589,27 @@
       <c r="K40" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L40" s="135" t="s">
-        <v>244</v>
+      <c r="L40" s="141" t="s">
+        <v>158</v>
       </c>
       <c r="M40" s="123" t="str">
         <f>IF((L40=""),"",VLOOKUP(L40,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
-        <v>25</v>
-      </c>
-      <c r="N40" s="137" t="s">
+        <v>06</v>
+      </c>
+      <c r="N40" s="143" t="s">
         <v>262</v>
       </c>
-      <c r="O40" s="135" t="s">
-        <v>167</v>
+      <c r="O40" s="141" t="s">
+        <v>519</v>
       </c>
       <c r="P40" s="131" t="str">
         <f>IF((O40=""),"",VLOOKUP(O40,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>183 53 Täby</v>
       </c>
       <c r="Q40" s="97">
         <v>44346</v>
       </c>
-      <c r="R40" s="138" t="s">
+      <c r="R40" s="144" t="s">
         <v>162</v>
       </c>
       <c r="S40" s="93">
@@ -34630,14 +34633,14 @@
       </c>
     </row>
     <row r="41" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="133" t="s">
-        <v>580</v>
+      <c r="A41" s="139" t="s">
+        <v>550</v>
       </c>
       <c r="B41" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="134" t="s">
-        <v>574</v>
+      <c r="C41" s="140" t="s">
+        <v>577</v>
       </c>
       <c r="D41" s="94" t="s">
         <v>107</v>
@@ -34663,27 +34666,27 @@
       <c r="K41" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L41" s="135" t="s">
-        <v>244</v>
+      <c r="L41" s="141" t="s">
+        <v>102</v>
       </c>
       <c r="M41" s="123" t="str">
         <f>IF((L41=""),"",VLOOKUP(L41,'Drop down list'!$L$2:$M$22,2, FALSE))</f>
-        <v>25</v>
-      </c>
-      <c r="N41" s="137" t="s">
+        <v>07</v>
+      </c>
+      <c r="N41" s="143" t="s">
         <v>265</v>
       </c>
-      <c r="O41" s="135" t="s">
-        <v>167</v>
+      <c r="O41" s="141" t="s">
+        <v>143</v>
       </c>
       <c r="P41" s="131" t="str">
         <f>IF((O41=""),"",VLOOKUP(O41,'Drop down list'!$N$2:$O$7,2, FALSE))</f>
-        <v>621 84 Visby</v>
+        <v>171 65 Solna</v>
       </c>
       <c r="Q41" s="97">
         <v>44347</v>
       </c>
-      <c r="R41" s="138" t="s">
+      <c r="R41" s="144" t="s">
         <v>169</v>
       </c>
       <c r="S41" s="93">
@@ -67169,6 +67172,7 @@
       <c r="AE1000" s="117"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="w/n28pNlQQvlO2SpcYlLI09sddenwL1JeWmiDg6jtXqne1OGkt+RVX+r0J7hwTGheviEWYHNHRaHoXvIeGz1fg==" saltValue="kUQabCKZWNHboOodwD6XCQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="3">
     <mergeCell ref="A9:T9"/>
     <mergeCell ref="V9:W9"/>
@@ -67336,7 +67340,7 @@
         <v>79</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>80</v>
@@ -67477,7 +67481,7 @@
         <v>131</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>132</v>
